--- a/Project Plan/Timeline with milestones (Revised).xlsx
+++ b/Project Plan/Timeline with milestones (Revised).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="17060" windowHeight="16220"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>DATE</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>User Manual (Final)</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -791,7 +794,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -820,7 +823,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -849,7 +852,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -878,7 +881,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -907,7 +910,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -936,7 +939,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.86566603567592E-16"/>
@@ -965,7 +968,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.09745060922113E-17"/>
@@ -1055,9 +1058,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Timeline'!$H$20:$H$36</c:f>
+              <c:f>'Project Timeline'!$H$20:$H$37</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Project Start</c:v>
                 </c:pt>
@@ -1071,53 +1074,56 @@
                   <c:v>Flowchart/UML</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Database</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Database</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Use Cases</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Test Plan</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>User Manual Draft (Tentative)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Presentation</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Implementation Phase</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>User Interface: "Layout"</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Dababase Implementation</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Prototype Testing</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Prototype Finished</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>User Interface: "Validation"</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>Extra Features</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>User Manual (Final)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Testing and Extra Feature Implementation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Timeline'!$F$20:$F$36</c:f>
+              <c:f>'Project Timeline'!$F$20:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>25.0</c:v>
                 </c:pt>
@@ -1131,43 +1137,46 @@
                   <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-15.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                <c:pt idx="9">
+                  <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>-15.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-25.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-12.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>-30.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-30.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,8 +1196,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-382353344"/>
-        <c:axId val="-382355824"/>
+        <c:axId val="1818402640"/>
+        <c:axId val="1818400160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1235,10 +1244,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>'Project Timeline'!$G$20:$G$36</c:f>
+              <c:f>'Project Timeline'!$G$20:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42979.0</c:v>
                 </c:pt>
@@ -1252,53 +1261,56 @@
                   <c:v>43024.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>43031.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43031.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43045.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43068.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43071.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43088.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>43129.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43145.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>43145.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>43179.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>43180.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>43180.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>43189.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>43221.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43230.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Timeline'!$E$20:$E$36</c:f>
+              <c:f>'Project Timeline'!$E$20:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1350,6 +1362,9 @@
                 <c:pt idx="16">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1370,11 +1385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-382361600"/>
-        <c:axId val="-382358304"/>
+        <c:axId val="1818394576"/>
+        <c:axId val="1818397408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-382361600"/>
+        <c:axId val="1818394576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-382358304"/>
+        <c:crossAx val="1818397408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1425,7 +1440,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-382358304"/>
+        <c:axId val="1818397408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,12 +1450,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-382361600"/>
+        <c:crossAx val="1818394576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-382355824"/>
+        <c:axId val="1818400160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,12 +1465,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-382353344"/>
+        <c:crossAx val="1818402640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-382353344"/>
+        <c:axId val="1818402640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +1480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-382355824"/>
+        <c:crossAx val="1818400160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1532,7 +1547,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectDetails" displayName="ProjectDetails" ref="B19:H36" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectDetails" displayName="ProjectDetails" ref="B19:H37" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="DATE" dataDxfId="22"/>
     <tableColumn id="2" name="MILESTONE" dataDxfId="21"/>
@@ -1850,17 +1865,17 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" hidden="1" customWidth="1"/>
@@ -2118,13 +2133,13 @@
     </row>
     <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="12">
-        <v>43045</v>
+        <v>43031</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6">
-        <v>-15</v>
+        <v>36</v>
+      </c>
+      <c r="D24" s="7">
+        <v>-20</v>
       </c>
       <c r="E24" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
@@ -2132,150 +2147,150 @@
       </c>
       <c r="F24" s="4">
         <f>IFERROR(IF('Project Data Sorted'!P9="",5,'Project Data Sorted'!P9),0)</f>
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G24" s="1">
         <f>IFERROR(IF('Project Data Sorted'!N9="",ProjectEnd,'Project Data Sorted'!N9),ProjectEnd)</f>
-        <v>43045</v>
+        <v>43031</v>
       </c>
       <c r="H24" s="4" t="str">
         <f>IFERROR(IF('Project Data Sorted'!O9="","",'Project Data Sorted'!O9),"")</f>
-        <v>Use Cases</v>
+        <v>Database</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="12">
-        <v>43068</v>
+        <v>43045</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E25" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P10="",5,'Project Data Sorted'!P10),0)</f>
-        <v>10</v>
+        <f>IFERROR(IF('Project Data Sorted'!P9="",5,'Project Data Sorted'!P9),0)</f>
+        <v>-20</v>
       </c>
       <c r="G25" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N10="",ProjectEnd,'Project Data Sorted'!N10),ProjectEnd)</f>
-        <v>43068</v>
+        <f>IFERROR(IF('Project Data Sorted'!N9="",ProjectEnd,'Project Data Sorted'!N9),ProjectEnd)</f>
+        <v>43031</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O10="","",'Project Data Sorted'!O10),"")</f>
-        <v>Test Plan</v>
+        <f>IFERROR(IF('Project Data Sorted'!O9="","",'Project Data Sorted'!O9),"")</f>
+        <v>Database</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="12">
-        <v>43071</v>
+        <v>43068</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="6">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P11="",5,'Project Data Sorted'!P11),0)</f>
-        <v>-15</v>
+        <f>IFERROR(IF('Project Data Sorted'!P10="",5,'Project Data Sorted'!P10),0)</f>
+        <v>-10</v>
       </c>
       <c r="G26" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N11="",ProjectEnd,'Project Data Sorted'!N11),ProjectEnd)</f>
-        <v>43071</v>
+        <f>IFERROR(IF('Project Data Sorted'!N10="",ProjectEnd,'Project Data Sorted'!N10),ProjectEnd)</f>
+        <v>43045</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O11="","",'Project Data Sorted'!O11),"")</f>
-        <v>User Manual Draft (Tentative)</v>
+        <f>IFERROR(IF('Project Data Sorted'!O10="","",'Project Data Sorted'!O10),"")</f>
+        <v>Use Cases</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="12">
-        <v>43088</v>
+        <v>43071</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="E27" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P12="",5,'Project Data Sorted'!P12),0)</f>
-        <v>15</v>
+        <f>IFERROR(IF('Project Data Sorted'!P11="",5,'Project Data Sorted'!P11),0)</f>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N12="",ProjectEnd,'Project Data Sorted'!N12),ProjectEnd)</f>
-        <v>43088</v>
+        <f>IFERROR(IF('Project Data Sorted'!N11="",ProjectEnd,'Project Data Sorted'!N11),ProjectEnd)</f>
+        <v>43068</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O12="","",'Project Data Sorted'!O12),"")</f>
-        <v>Presentation</v>
+        <f>IFERROR(IF('Project Data Sorted'!O11="","",'Project Data Sorted'!O11),"")</f>
+        <v>Test Plan</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="12">
-        <v>43129</v>
+        <v>43088</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D28" s="6">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="E28" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P13="",5,'Project Data Sorted'!P13),0)</f>
-        <v>-25</v>
+        <f>IFERROR(IF('Project Data Sorted'!P12="",5,'Project Data Sorted'!P12),0)</f>
+        <v>-15</v>
       </c>
       <c r="G28" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N13="",ProjectEnd,'Project Data Sorted'!N13),ProjectEnd)</f>
-        <v>43129</v>
+        <f>IFERROR(IF('Project Data Sorted'!N12="",ProjectEnd,'Project Data Sorted'!N12),ProjectEnd)</f>
+        <v>43071</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O13="","",'Project Data Sorted'!O13),"")</f>
-        <v>Implementation Phase</v>
+        <f>IFERROR(IF('Project Data Sorted'!O12="","",'Project Data Sorted'!O12),"")</f>
+        <v>User Manual Draft (Tentative)</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="12">
-        <v>43145</v>
+        <v>43129</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6">
-        <v>15</v>
+        <v>-25</v>
       </c>
       <c r="E29" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P14="",5,'Project Data Sorted'!P14),0)</f>
-        <v>-12</v>
+        <f>IFERROR(IF('Project Data Sorted'!P13="",5,'Project Data Sorted'!P13),0)</f>
+        <v>15</v>
       </c>
       <c r="G29" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N14="",ProjectEnd,'Project Data Sorted'!N14),ProjectEnd)</f>
-        <v>43145</v>
+        <f>IFERROR(IF('Project Data Sorted'!N13="",ProjectEnd,'Project Data Sorted'!N13),ProjectEnd)</f>
+        <v>43088</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O14="","",'Project Data Sorted'!O14),"")</f>
-        <v>User Interface: "Layout"</v>
+        <f>IFERROR(IF('Project Data Sorted'!O13="","",'Project Data Sorted'!O13),"")</f>
+        <v>Presentation</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2283,188 +2298,215 @@
         <v>43145</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="7">
-        <v>-12</v>
+        <v>28</v>
+      </c>
+      <c r="D30" s="6">
+        <v>15</v>
       </c>
       <c r="E30" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P15="",5,'Project Data Sorted'!P15),0)</f>
-        <v>15</v>
+        <f>IFERROR(IF('Project Data Sorted'!P14="",5,'Project Data Sorted'!P14),0)</f>
+        <v>-25</v>
       </c>
       <c r="G30" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N15="",ProjectEnd,'Project Data Sorted'!N15),ProjectEnd)</f>
-        <v>43145</v>
+        <f>IFERROR(IF('Project Data Sorted'!N14="",ProjectEnd,'Project Data Sorted'!N14),ProjectEnd)</f>
+        <v>43129</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O15="","",'Project Data Sorted'!O15),"")</f>
-        <v>Dababase Implementation</v>
+        <f>IFERROR(IF('Project Data Sorted'!O14="","",'Project Data Sorted'!O14),"")</f>
+        <v>Implementation Phase</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="12">
-        <v>43180</v>
+        <v>43145</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7">
-        <v>25</v>
+        <v>-12</v>
       </c>
       <c r="E31" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P16="",5,'Project Data Sorted'!P16),0)</f>
-        <v>-30</v>
+        <f>IFERROR(IF('Project Data Sorted'!P15="",5,'Project Data Sorted'!P15),0)</f>
+        <v>-12</v>
       </c>
       <c r="G31" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N16="",ProjectEnd,'Project Data Sorted'!N16),ProjectEnd)</f>
-        <v>43179</v>
+        <f>IFERROR(IF('Project Data Sorted'!N15="",ProjectEnd,'Project Data Sorted'!N15),ProjectEnd)</f>
+        <v>43145</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O16="","",'Project Data Sorted'!O16),"")</f>
-        <v>Prototype Testing</v>
+        <f>IFERROR(IF('Project Data Sorted'!O15="","",'Project Data Sorted'!O15),"")</f>
+        <v>User Interface: "Layout"</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="12">
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="7">
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="E32" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P17="",5,'Project Data Sorted'!P17),0)</f>
-        <v>5</v>
+        <f>IFERROR(IF('Project Data Sorted'!P16="",5,'Project Data Sorted'!P16),0)</f>
+        <v>15</v>
       </c>
       <c r="G32" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N17="",ProjectEnd,'Project Data Sorted'!N17),ProjectEnd)</f>
-        <v>43180</v>
+        <f>IFERROR(IF('Project Data Sorted'!N16="",ProjectEnd,'Project Data Sorted'!N16),ProjectEnd)</f>
+        <v>43145</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O17="","",'Project Data Sorted'!O17),"")</f>
-        <v>Prototype Finished</v>
+        <f>IFERROR(IF('Project Data Sorted'!O16="","",'Project Data Sorted'!O16),"")</f>
+        <v>Dababase Implementation</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="12">
-        <v>43180</v>
+        <v>43179</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="7">
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="E33" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P18="",5,'Project Data Sorted'!P18),0)</f>
-        <v>25</v>
+        <f>IFERROR(IF('Project Data Sorted'!P17="",5,'Project Data Sorted'!P17),0)</f>
+        <v>-30</v>
       </c>
       <c r="G33" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N18="",ProjectEnd,'Project Data Sorted'!N18),ProjectEnd)</f>
-        <v>43180</v>
+        <f>IFERROR(IF('Project Data Sorted'!N17="",ProjectEnd,'Project Data Sorted'!N17),ProjectEnd)</f>
+        <v>43179</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O18="","",'Project Data Sorted'!O18),"")</f>
-        <v>User Interface: "Validation"</v>
+        <f>IFERROR(IF('Project Data Sorted'!O17="","",'Project Data Sorted'!O17),"")</f>
+        <v>Prototype Testing</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="12">
-        <v>43189</v>
+        <v>43180</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="7">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="E34" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P19="",5,'Project Data Sorted'!P19),0)</f>
-        <v>-15</v>
+        <f>IFERROR(IF('Project Data Sorted'!P18="",5,'Project Data Sorted'!P18),0)</f>
+        <v>5</v>
       </c>
       <c r="G34" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N19="",ProjectEnd,'Project Data Sorted'!N19),ProjectEnd)</f>
-        <v>43189</v>
+        <f>IFERROR(IF('Project Data Sorted'!N18="",ProjectEnd,'Project Data Sorted'!N18),ProjectEnd)</f>
+        <v>43180</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O19="","",'Project Data Sorted'!O19),"")</f>
-        <v>Extra Features</v>
+        <f>IFERROR(IF('Project Data Sorted'!O18="","",'Project Data Sorted'!O18),"")</f>
+        <v>Prototype Finished</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="12">
-        <v>43230</v>
+        <v>43189</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7">
-        <v>12</v>
+        <v>-15</v>
       </c>
       <c r="E35" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f>IFERROR(IF('Project Data Sorted'!P20="",5,'Project Data Sorted'!P20),0)</f>
-        <v>-30</v>
+        <f>IFERROR(IF('Project Data Sorted'!P19="",5,'Project Data Sorted'!P19),0)</f>
+        <v>25</v>
       </c>
       <c r="G35" s="1">
-        <f>IFERROR(IF('Project Data Sorted'!N20="",ProjectEnd,'Project Data Sorted'!N20),ProjectEnd)</f>
-        <v>43221</v>
+        <f>IFERROR(IF('Project Data Sorted'!N19="",ProjectEnd,'Project Data Sorted'!N19),ProjectEnd)</f>
+        <v>43180</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f>IFERROR(IF('Project Data Sorted'!O20="","",'Project Data Sorted'!O20),"")</f>
-        <v>User Manual (Final)</v>
+        <f>IFERROR(IF('Project Data Sorted'!O19="","",'Project Data Sorted'!O19),"")</f>
+        <v>User Interface: "Validation"</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="12">
-        <v>43221</v>
+        <v>43230</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="7">
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="E36" s="6">
         <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
         <v>0</v>
       </c>
       <c r="F36" s="4">
+        <f>IFERROR(IF('Project Data Sorted'!P20="",5,'Project Data Sorted'!P20),0)</f>
+        <v>-15</v>
+      </c>
+      <c r="G36" s="1">
+        <f>IFERROR(IF('Project Data Sorted'!N20="",ProjectEnd,'Project Data Sorted'!N20),ProjectEnd)</f>
+        <v>43189</v>
+      </c>
+      <c r="H36" s="4" t="str">
+        <f>IFERROR(IF('Project Data Sorted'!O20="","",'Project Data Sorted'!O20),"")</f>
+        <v>Extra Features</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="12">
+        <v>43221</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="7">
+        <v>-30</v>
+      </c>
+      <c r="E37" s="6">
+        <f>IF(ISBLANK(ProjectDetails[[#This Row],[DATE]]),"",0)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
         <f>IFERROR(IF('Project Data Sorted'!P21="",5,'Project Data Sorted'!P21),0)</f>
-        <v>12</v>
-      </c>
-      <c r="G36" s="1">
+        <v>-30</v>
+      </c>
+      <c r="G37" s="1">
         <f>IFERROR(IF('Project Data Sorted'!N21="",ProjectEnd,'Project Data Sorted'!N21),ProjectEnd)</f>
-        <v>43230</v>
-      </c>
-      <c r="H36" s="4" t="str">
+        <v>43221</v>
+      </c>
+      <c r="H37" s="4" t="str">
         <f>IFERROR(IF('Project Data Sorted'!O21="","",'Project Data Sorted'!O21),"")</f>
-        <v>Testing and Extra Feature Implementation</v>
+        <v>User Manual (Final)</v>
       </c>
     </row>
   </sheetData>
@@ -2566,11 +2608,11 @@
       </c>
       <c r="C5" s="13">
         <f>IFERROR(MATCH(9.99E+307,ProjectDetails[DATE])+Project_start_row-1,Project_start_row)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="16">
         <f>IFERROR(RANK(F5,ProjectTimelineData[RANK])+SUMPRODUCT(--(F5=ProjectTimelineData[RANK]),--(J5&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2590,11 +2632,11 @@
       </c>
       <c r="J5" s="13">
         <f>IFERROR(IF(AND(Project_last_entry-Project_start_row=0,ISBLANK(INDEX(ProjectDetails[],1,1))),"",IF(Project_last_entry-Project_start_row=0,0,Project_last_entry-Project_start_row)),"")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
@@ -2612,7 +2654,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E6" s="16">
         <f>IFERROR(RANK(F6,ProjectTimelineData[RANK])+SUMPRODUCT(--(F6=ProjectTimelineData[RANK]),--(J6&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2632,11 +2674,11 @@
       </c>
       <c r="J6" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A1)+1,1)),"",IF($J5-1&lt;=-1,"",$J5-1)),"")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N6" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
@@ -2654,7 +2696,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E7" s="16">
         <f>IFERROR(RANK(F7,ProjectTimelineData[RANK])+SUMPRODUCT(--(F7=ProjectTimelineData[RANK]),--(J7&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2674,11 +2716,11 @@
       </c>
       <c r="J7" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A2)+1,1)),"",IF($J6-1&lt;=-1,"",$J6-1)),"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N7" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
@@ -2696,7 +2738,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E8" s="16">
         <f>IFERROR(RANK(F8,ProjectTimelineData[RANK])+SUMPRODUCT(--(F8=ProjectTimelineData[RANK]),--(J8&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2716,11 +2758,11 @@
       </c>
       <c r="J8" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A3)+1,1)),"",IF($J7-1&lt;=-1,"",$J7-1)),"")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
@@ -2738,7 +2780,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E9" s="16">
         <f>IFERROR(RANK(F9,ProjectTimelineData[RANK])+SUMPRODUCT(--(F9=ProjectTimelineData[RANK]),--(J9&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2746,41 +2788,41 @@
       </c>
       <c r="G9" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43045</v>
+        <v>43031</v>
       </c>
       <c r="H9" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Use Cases</v>
+        <v>Database</v>
       </c>
       <c r="I9" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="J9" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A4)+1,1)),"",IF($J8-1&lt;=-1,"",$J8-1)),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N9" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43045</v>
+        <v>43031</v>
       </c>
       <c r="O9" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Use Cases</v>
+        <v>Database</v>
       </c>
       <c r="P9" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>-15</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E10" s="16">
         <f>IFERROR(RANK(F10,ProjectTimelineData[RANK])+SUMPRODUCT(--(F10=ProjectTimelineData[RANK]),--(J10&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2788,41 +2830,41 @@
       </c>
       <c r="G10" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43068</v>
+        <v>43045</v>
       </c>
       <c r="H10" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Test Plan</v>
+        <v>Use Cases</v>
       </c>
       <c r="I10" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J10" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A5)+1,1)),"",IF($J9-1&lt;=-1,"",$J9-1)),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43068</v>
+        <v>43045</v>
       </c>
       <c r="O10" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Test Plan</v>
+        <v>Use Cases</v>
       </c>
       <c r="P10" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E11" s="16">
         <f>IFERROR(RANK(F11,ProjectTimelineData[RANK])+SUMPRODUCT(--(F11=ProjectTimelineData[RANK]),--(J11&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2830,41 +2872,41 @@
       </c>
       <c r="G11" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43071</v>
+        <v>43068</v>
       </c>
       <c r="H11" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>User Manual Draft (Tentative)</v>
+        <v>Test Plan</v>
       </c>
       <c r="I11" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="J11" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A6)+1,1)),"",IF($J10-1&lt;=-1,"",$J10-1)),"")</f>
+        <v>11</v>
+      </c>
+      <c r="M11" s="16">
+        <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
+        <v>12</v>
+      </c>
+      <c r="N11" s="17">
+        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
+        <v>43068</v>
+      </c>
+      <c r="O11" s="13" t="str">
+        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
+        <v>Test Plan</v>
+      </c>
+      <c r="P11" s="13">
+        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
         <v>10</v>
-      </c>
-      <c r="M11" s="16">
-        <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>11</v>
-      </c>
-      <c r="N11" s="17">
-        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43071</v>
-      </c>
-      <c r="O11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>User Manual Draft (Tentative)</v>
-      </c>
-      <c r="P11" s="13">
-        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>-15</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E12" s="16">
         <f>IFERROR(RANK(F12,ProjectTimelineData[RANK])+SUMPRODUCT(--(F12=ProjectTimelineData[RANK]),--(J12&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2872,83 +2914,83 @@
       </c>
       <c r="G12" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43088</v>
+        <v>43071</v>
       </c>
       <c r="H12" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Presentation</v>
+        <v>User Manual Draft (Tentative)</v>
       </c>
       <c r="I12" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="J12" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A7)+1,1)),"",IF($J11-1&lt;=-1,"",$J11-1)),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43088</v>
+        <v>43071</v>
       </c>
       <c r="O12" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Presentation</v>
+        <v>User Manual Draft (Tentative)</v>
       </c>
       <c r="P12" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>15</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E13" s="16">
         <f>IFERROR(RANK(F13,ProjectTimelineData[RANK])+SUMPRODUCT(--(F13=ProjectTimelineData[RANK]),--(J13&lt;ProjectTimelineData[NUM])),"")</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="16">
+        <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
         <v>9</v>
       </c>
-      <c r="F13" s="16">
-        <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v>9</v>
-      </c>
       <c r="G13" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43129</v>
+        <v>43088</v>
       </c>
       <c r="H13" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Implementation Phase</v>
+        <v>Presentation</v>
       </c>
       <c r="I13" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="J13" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A8)+1,1)),"",IF($J12-1&lt;=-1,"",$J12-1)),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M13" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N13" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43129</v>
+        <v>43088</v>
       </c>
       <c r="O13" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Implementation Phase</v>
+        <v>Presentation</v>
       </c>
       <c r="P13" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>-25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E14" s="16">
         <f>IFERROR(RANK(F14,ProjectTimelineData[RANK])+SUMPRODUCT(--(F14=ProjectTimelineData[RANK]),--(J14&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -2956,45 +2998,45 @@
       </c>
       <c r="G14" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43145</v>
+        <v>43129</v>
       </c>
       <c r="H14" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Dababase Implementation</v>
+        <v>Implementation Phase</v>
       </c>
       <c r="I14" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>15</v>
+        <v>-25</v>
       </c>
       <c r="J14" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A9)+1,1)),"",IF($J13-1&lt;=-1,"",$J13-1)),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N14" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43145</v>
+        <v>43129</v>
       </c>
       <c r="O14" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>User Interface: "Layout"</v>
+        <v>Implementation Phase</v>
       </c>
       <c r="P14" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>-12</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E15" s="16">
         <f>IFERROR(RANK(F15,ProjectTimelineData[RANK])+SUMPRODUCT(--(F15=ProjectTimelineData[RANK]),--(J15&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
@@ -3002,19 +3044,19 @@
       </c>
       <c r="H15" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>User Interface: "Layout"</v>
+        <v>Dababase Implementation</v>
       </c>
       <c r="I15" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="J15" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A10)+1,1)),"",IF($J14-1&lt;=-1,"",$J14-1)),"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
@@ -3022,103 +3064,103 @@
       </c>
       <c r="O15" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Dababase Implementation</v>
+        <v>User Interface: "Layout"</v>
       </c>
       <c r="P15" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>15</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E16" s="16">
         <f>IFERROR(RANK(F16,ProjectTimelineData[RANK])+SUMPRODUCT(--(F16=ProjectTimelineData[RANK]),--(J16&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43180</v>
+        <v>43145</v>
       </c>
       <c r="H16" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>User Interface: "Validation"</v>
+        <v>User Interface: "Layout"</v>
       </c>
       <c r="I16" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>25</v>
+        <v>-12</v>
       </c>
       <c r="J16" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A11)+1,1)),"",IF($J15-1&lt;=-1,"",$J15-1)),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N16" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43179</v>
+        <v>43145</v>
       </c>
       <c r="O16" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Prototype Testing</v>
+        <v>Dababase Implementation</v>
       </c>
       <c r="P16" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>-30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
       <c r="E17" s="16">
         <f>IFERROR(RANK(F17,ProjectTimelineData[RANK])+SUMPRODUCT(--(F17=ProjectTimelineData[RANK]),--(J17&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="H17" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Prototype Testing</v>
+        <v>User Interface: "Validation"</v>
       </c>
       <c r="I17" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>-30</v>
+        <v>25</v>
       </c>
       <c r="J17" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A12)+1,1)),"",IF($J16-1&lt;=-1,"",$J16-1)),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43180</v>
+        <v>43179</v>
       </c>
       <c r="O17" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Prototype Finished</v>
+        <v>Prototype Testing</v>
       </c>
       <c r="P17" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>5</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="20"/>
       <c r="E18" s="16">
         <f>IFERROR(RANK(F18,ProjectTimelineData[RANK])+SUMPRODUCT(--(F18=ProjectTimelineData[RANK]),--(J18&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
@@ -3126,23 +3168,23 @@
       </c>
       <c r="G18" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43180</v>
+        <v>43179</v>
       </c>
       <c r="H18" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Prototype Finished</v>
+        <v>Prototype Testing</v>
       </c>
       <c r="I18" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>5</v>
+        <v>-30</v>
       </c>
       <c r="J18" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A13)+1,1)),"",IF($J17-1&lt;=-1,"",$J17-1)),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
@@ -3150,179 +3192,179 @@
       </c>
       <c r="O18" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>User Interface: "Validation"</v>
+        <v>Prototype Finished</v>
       </c>
       <c r="P18" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E19" s="16">
         <f>IFERROR(RANK(F19,ProjectTimelineData[RANK])+SUMPRODUCT(--(F19=ProjectTimelineData[RANK]),--(J19&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43189</v>
+        <v>43180</v>
       </c>
       <c r="H19" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Extra Features</v>
+        <v>Prototype Finished</v>
       </c>
       <c r="I19" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="J19" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A14)+1,1)),"",IF($J18-1&lt;=-1,"",$J18-1)),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43189</v>
+        <v>43180</v>
       </c>
       <c r="O19" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>Extra Features</v>
+        <v>User Interface: "Validation"</v>
       </c>
       <c r="P19" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>-15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E20" s="16">
         <f>IFERROR(RANK(F20,ProjectTimelineData[RANK])+SUMPRODUCT(--(F20=ProjectTimelineData[RANK]),--(J20&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43230</v>
+        <v>43189</v>
       </c>
       <c r="H20" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>Testing and Extra Feature Implementation</v>
+        <v>Extra Features</v>
       </c>
       <c r="I20" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>12</v>
+        <v>-15</v>
       </c>
       <c r="J20" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A15)+1,1)),"",IF($J19-1&lt;=-1,"",$J19-1)),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v>43221</v>
+        <v>43189</v>
       </c>
       <c r="O20" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v>User Manual (Final)</v>
+        <v>Extra Features</v>
       </c>
       <c r="P20" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v>-30</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E21" s="16">
         <f>IFERROR(RANK(F21,ProjectTimelineData[RANK])+SUMPRODUCT(--(F21=ProjectTimelineData[RANK]),--(J21&lt;ProjectTimelineData[NUM])),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="16">
         <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" s="17">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v>43221</v>
+        <v>43230</v>
       </c>
       <c r="H21" s="19" t="str">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v>User Manual (Final)</v>
+        <v>Testing and Extra Feature Implementation</v>
       </c>
       <c r="I21" s="19">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="J21" s="13">
         <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A16)+1,1)),"",IF($J20-1&lt;=-1,"",$J20-1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="16">
+        <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="N21" s="17">
+        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
+        <v>43221</v>
+      </c>
+      <c r="O21" s="13" t="str">
+        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
+        <v>User Manual (Final)</v>
+      </c>
+      <c r="P21" s="13">
+        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="E22" s="16">
+        <f>IFERROR(RANK(F22,ProjectTimelineData[RANK])+SUMPRODUCT(--(F22=ProjectTimelineData[RANK]),--(J22&lt;ProjectTimelineData[NUM])),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="16">
+        <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
+        <v>17</v>
+      </c>
+      <c r="G22" s="17">
+        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
+        <v>43221</v>
+      </c>
+      <c r="H22" s="19" t="str">
+        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
+        <v>User Manual (Final)</v>
+      </c>
+      <c r="I22" s="19">
+        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
+        <v>-30</v>
+      </c>
+      <c r="J22" s="13">
+        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A17)+1,1)),"",IF($J21-1&lt;=-1,"",$J21-1)),"")</f>
         <v>0</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M22" s="16">
         <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
         <v>1</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N22" s="17">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
         <v>43230</v>
       </c>
-      <c r="O21" s="13" t="str">
+      <c r="O22" s="13" t="str">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
         <v>Testing and Extra Feature Implementation</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P22" s="13">
         <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E22" s="16" t="str">
-        <f>IFERROR(RANK(F22,ProjectTimelineData[RANK])+SUMPRODUCT(--(F22=ProjectTimelineData[RANK]),--(J22&lt;ProjectTimelineData[NUM])),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="16" t="str">
-        <f>IFERROR(RANK(ProjectTimelineData[[#This Row],[DATE]],ProjectTimelineData[DATE],1),"")</f>
-        <v/>
-      </c>
-      <c r="G22" s="17" t="str">
-        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,1)),"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="19" t="str">
-        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,2)),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="19" t="str">
-        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"",INDEX(ProjectDetails[],Project_last_entry-Project_start_row-ProjectTimelineData[[#This Row],[NUM]]+1,3)),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="13" t="str">
-        <f>IFERROR(IF(ISBLANK(INDEX(ProjectDetails[],ROW(A17)+1,1)),"",IF($J21-1&lt;=-1,"",$J21-1)),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="16" t="str">
-        <f>IFERROR(ProjectTimelineData[NUM]+1,"")</f>
-        <v/>
-      </c>
-      <c r="N22" s="17" t="str">
-        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="13" t="str">
-        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],4,0),"")</f>
-        <v/>
-      </c>
-      <c r="P22" s="13" t="str">
-        <f>IFERROR(VLOOKUP(SortedTimeline[RANK Sorted],ProjectTimelineData[],5,0),"")</f>
-        <v/>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
